--- a/example/example.xlsx
+++ b/example/example.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4A611F-DA84-448D-A6AA-D44E55E0E632}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6A8235-F262-4E50-89D8-5C691944FE76}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3825" yWindow="930" windowWidth="28830" windowHeight="13980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35745" yWindow="720" windowWidth="28830" windowHeight="13980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -116,10 +116,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
-    <t>TableName: "example" Package: "table"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ObjectType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -207,6 +203,10 @@
   </si>
   <si>
     <t>邋遢大王</t>
+  </si>
+  <si>
+    <t>TableName: "Example" Package: "table"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -593,7 +593,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
@@ -605,31 +605,31 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -637,7 +637,7 @@
         <v>100</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
@@ -645,7 +645,7 @@
         <v>101</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="33" x14ac:dyDescent="0.2">
@@ -653,7 +653,7 @@
         <v>103</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
@@ -661,7 +661,7 @@
         <v>104</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -675,8 +675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BBF1141-CB04-4091-A332-2F5771FE154E}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -686,59 +686,59 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/example/example.xlsx
+++ b/example/example.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6A8235-F262-4E50-89D8-5C691944FE76}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4450AE8-DDBE-4BD6-998B-F16975ED5C74}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35745" yWindow="720" windowWidth="28830" windowHeight="13980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>ObjectType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -206,6 +206,26 @@
   </si>
   <si>
     <t>TableName: "Example" Package: "table"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ListSpliter:","</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repeated float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1,15,55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,12.3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -297,7 +317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -310,6 +330,10 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -591,64 +615,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.25" customWidth="1"/>
     <col min="2" max="2" width="12.375" customWidth="1"/>
+    <col min="3" max="3" width="37.375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>16</v>
       </c>
       <c r="B1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C3" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>100</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C6" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>101</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="33" x14ac:dyDescent="0.2">
+      <c r="C7" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="33" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>103</v>
       </c>
@@ -656,18 +697,22 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>104</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>26</v>
+      </c>
+      <c r="C9" s="5">
+        <v>5.9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -675,7 +720,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BBF1141-CB04-4091-A332-2F5771FE154E}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
